--- a/posesiones/1381254.xlsx
+++ b/posesiones/1381254.xlsx
@@ -1889,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2083,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>21</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>11</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2289,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>13</v>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>17</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>9</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>9</v>
@@ -2601,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17">
         <v>19</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>6</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>15</v>
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R24">
         <v>13</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R26">
         <v>21</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R28">
         <v>5</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R30">
         <v>27</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R32">
         <v>13</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3607,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R37">
         <v>17</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R39">
         <v>15</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R41">
         <v>18</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3907,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R43">
         <v>4</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R47">
         <v>9</v>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R49">
         <v>13</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R51">
         <v>27</v>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R53">
         <v>11</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R56">
         <v>24</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R62">
         <v>4</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R65">
         <v>13</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R67">
         <v>23</v>
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R68">
         <v>14</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R72">
         <v>21</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R74">
         <v>16</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R78">
         <v>19</v>
@@ -5695,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R79">
         <v>14</v>
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R81">
         <v>11</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5898,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R83">
         <v>11</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6136,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6280,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R91">
         <v>10</v>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R99">
         <v>16</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R103">
         <v>24</v>
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R104">
         <v>17</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R106">
         <v>6</v>
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7109,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R108">
         <v>15</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7209,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R110">
         <v>21</v>
@@ -7259,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7300,10 +7300,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7344,10 +7344,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7397,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R114">
         <v>15</v>
@@ -7450,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7500,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R116">
         <v>7</v>
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7788,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7885,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R124">
         <v>47</v>
@@ -7935,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R125">
         <v>10</v>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8179,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R130">
         <v>22</v>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8420,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8564,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R138">
         <v>4</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8711,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R141">
         <v>23</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8814,7 +8814,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R143">
         <v>10</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8914,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R145">
         <v>27</v>
@@ -8967,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R146">
         <v>22</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R148">
         <v>24</v>
@@ -9120,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9170,7 +9170,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R150">
         <v>19</v>
@@ -9220,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R152">
         <v>28</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9370,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9420,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9514,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R161">
         <v>13</v>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9899,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9949,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R166">
         <v>26</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10093,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10140,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10284,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R173">
         <v>12</v>
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10384,7 +10384,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R175">
         <v>18</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R177">
         <v>18</v>
@@ -10534,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10578,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R182">
         <v>18</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10825,7 +10825,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R184">
         <v>14</v>
@@ -10878,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R185">
         <v>23</v>
@@ -10928,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11022,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R189">
         <v>14</v>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11219,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11266,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11363,7 +11363,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R195">
         <v>16</v>
@@ -11416,7 +11416,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R196">
         <v>23</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11519,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R198">
         <v>12</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11757,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R203">
         <v>15</v>
@@ -11810,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R204">
         <v>22</v>
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12004,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12051,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12098,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R211">
         <v>6</v>
@@ -12201,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R212">
         <v>20</v>
@@ -12254,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12304,7 +12304,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R214">
         <v>13</v>
@@ -12357,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12404,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R216">
         <v>25</v>
@@ -12451,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12498,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12689,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R222">
         <v>9</v>
@@ -12742,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R223">
         <v>21</v>
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12845,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R225">
         <v>1</v>
@@ -12889,10 +12889,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q226">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13027,10 +13027,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R230">
         <v>14</v>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13180,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13230,7 +13230,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R233">
         <v>6</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13374,7 +13374,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13421,7 +13421,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13518,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13565,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13659,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13709,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R243">
         <v>29</v>
@@ -13762,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R244">
         <v>8</v>
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R245">
         <v>15</v>
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13918,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R247">
         <v>13</v>
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14021,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R249">
         <v>5</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14121,7 +14121,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R251">
         <v>4</v>
@@ -14171,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14221,7 +14221,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R253">
         <v>12</v>
@@ -14271,7 +14271,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14321,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R255">
         <v>17</v>
@@ -14374,7 +14374,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R256">
         <v>17</v>
@@ -14427,7 +14427,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R257">
         <v>12</v>
@@ -14477,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14524,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R260">
         <v>0</v>
@@ -14627,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14677,7 +14677,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R262">
         <v>18</v>
@@ -14730,7 +14730,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R263">
         <v>20</v>
@@ -14780,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14827,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14921,7 +14921,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14968,7 +14968,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15015,7 +15015,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15065,7 +15065,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R270">
         <v>6</v>
@@ -15118,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R271">
         <v>15</v>
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R272">
         <v>14</v>
@@ -15221,7 +15221,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15268,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15318,7 +15318,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R275">
         <v>32</v>
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15418,7 +15418,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R277">
         <v>18</v>
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15518,7 +15518,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15612,7 +15612,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R282">
         <v>6</v>
@@ -15709,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15756,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15806,7 +15806,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R285">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16003,7 +16003,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R289">
         <v>14</v>
@@ -16056,7 +16056,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16106,7 +16106,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R291">
         <v>11</v>
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R293">
         <v>14</v>
@@ -16259,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16309,7 +16309,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R295">
         <v>27</v>
@@ -16362,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16462,7 +16462,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R298">
         <v>4</v>
@@ -16512,7 +16512,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16562,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R300">
         <v>9</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16662,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R302">
         <v>23</v>
@@ -16712,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16806,7 +16806,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16853,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16900,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16950,7 +16950,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17000,7 +17000,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R309">
         <v>26</v>
@@ -17053,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17103,7 +17103,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R311">
         <v>5</v>
@@ -17153,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17203,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R313">
         <v>6</v>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17306,7 +17306,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R315">
         <v>13</v>
@@ -17359,7 +17359,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17409,7 +17409,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R317">
         <v>9</v>
@@ -17462,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17509,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17562,7 +17562,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R320">
         <v>9</v>
@@ -17612,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17659,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17706,7 +17706,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17753,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17800,7 +17800,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17894,7 +17894,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17941,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17988,7 +17988,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18035,7 +18035,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18135,7 +18135,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R332">
         <v>17</v>
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18238,7 +18238,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R334">
         <v>20</v>
@@ -18288,7 +18288,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18382,7 +18382,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18429,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18476,7 +18476,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18526,7 +18526,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R340">
         <v>11</v>
@@ -18579,7 +18579,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R341">
         <v>25</v>
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18679,7 +18679,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R343">
         <v>24</v>
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18782,7 +18782,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R345">
         <v>19</v>
@@ -18835,7 +18835,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R347">
         <v>4</v>
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18985,7 +18985,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R349">
         <v>7</v>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19088,7 +19088,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R351">
         <v>20</v>
@@ -19132,10 +19132,10 @@
         <v>1</v>
       </c>
       <c r="P352" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q352">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19176,10 +19176,10 @@
         <v>1</v>
       </c>
       <c r="P353" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q353">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19229,7 +19229,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R354">
         <v>17</v>
@@ -19282,7 +19282,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19332,7 +19332,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R356">
         <v>15</v>
@@ -19385,7 +19385,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19435,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R358">
         <v>10</v>
@@ -19488,7 +19488,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19538,7 +19538,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R360">
         <v>11</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19638,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19688,7 +19688,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19738,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R364">
         <v>24</v>
@@ -19788,7 +19788,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19835,7 +19835,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19882,7 +19882,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19929,7 +19929,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19976,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20073,7 +20073,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R371">
         <v>14</v>
@@ -20123,7 +20123,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20217,7 +20217,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20264,7 +20264,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20311,7 +20311,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20358,7 +20358,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20408,7 +20408,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R378">
         <v>20</v>
@@ -20458,7 +20458,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20505,7 +20505,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20555,7 +20555,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R381">
         <v>0</v>
@@ -20608,7 +20608,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R382">
         <v>20</v>
@@ -20661,7 +20661,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R383">
         <v>17</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20764,7 +20764,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R385">
         <v>11</v>
@@ -20814,7 +20814,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20861,7 +20861,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20955,7 +20955,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21002,7 +21002,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21052,7 +21052,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R391">
         <v>17</v>
@@ -21105,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21155,7 +21155,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R393">
         <v>19</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21252,7 +21252,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R395">
         <v>28</v>
@@ -21302,7 +21302,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21399,7 +21399,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R398">
         <v>14</v>
@@ -21449,7 +21449,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21496,7 +21496,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21546,7 +21546,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R401">
         <v>0</v>
@@ -21593,7 +21593,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21640,7 +21640,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21687,7 +21687,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21734,7 +21734,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21784,7 +21784,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21831,7 +21831,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21881,7 +21881,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21928,7 +21928,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21978,7 +21978,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22028,7 +22028,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R411">
         <v>39</v>
@@ -22081,7 +22081,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22128,7 +22128,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22178,7 +22178,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22228,7 +22228,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R415">
         <v>20</v>
@@ -22281,7 +22281,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22331,7 +22331,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R417">
         <v>4</v>
@@ -22381,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22428,7 +22428,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22478,7 +22478,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R420">
         <v>17</v>
@@ -22528,7 +22528,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22578,7 +22578,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R422">
         <v>14</v>
@@ -22628,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22678,7 +22678,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22728,7 +22728,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R425">
         <v>21</v>
@@ -22778,7 +22778,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22825,7 +22825,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22875,7 +22875,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R428">
         <v>17</v>
@@ -22928,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22975,7 +22975,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23022,7 +23022,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23113,7 +23113,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23160,7 +23160,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23207,7 +23207,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23254,7 +23254,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23301,7 +23301,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23398,7 +23398,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R439">
         <v>16</v>
@@ -23451,7 +23451,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R440">
         <v>16</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R443">
         <v>0</v>
@@ -23651,7 +23651,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23701,7 +23701,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R445">
         <v>17</v>
@@ -23751,7 +23751,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23845,7 +23845,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23942,7 +23942,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R450">
         <v>22</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24042,7 +24042,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R452">
         <v>7</v>
@@ -24095,7 +24095,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R453">
         <v>10</v>
@@ -24148,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24198,7 +24198,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R455">
         <v>17</v>
@@ -24245,7 +24245,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24295,7 +24295,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R457">
         <v>19</v>
@@ -24348,7 +24348,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R458">
         <v>17</v>
@@ -24398,7 +24398,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R460">
         <v>7</v>
@@ -24498,7 +24498,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24548,7 +24548,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R462">
         <v>6</v>
@@ -24598,7 +24598,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24786,7 +24786,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24836,7 +24836,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24886,7 +24886,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R469">
         <v>6</v>
@@ -24939,7 +24939,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24989,7 +24989,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R471">
         <v>5</v>
@@ -25039,7 +25039,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25133,7 +25133,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25183,7 +25183,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R475">
         <v>8</v>
@@ -25236,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25286,7 +25286,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R477">
         <v>5</v>
@@ -25336,7 +25336,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25383,7 +25383,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25430,7 +25430,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25477,7 +25477,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25527,7 +25527,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R482">
         <v>36</v>
@@ -25583,7 +25583,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R483">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         <v>1</v>
       </c>
       <c r="P484" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q484">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25671,7 +25671,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
